--- a/data/nopcommerce/titles.xlsx
+++ b/data/nopcommerce/titles.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BHD\Web-Automation-Framework-Team7\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BHD\Web-Automation-Framework-Team7\data\nopcommerce\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5444380B-171F-4B21-A09A-955024DD7F5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E1DE180-0E65-4A97-894A-68CEA09A1298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5640" yWindow="2556" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bhd" sheetId="1" r:id="rId1"/>
@@ -452,7 +452,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
